--- a/logs/2020-02-07/temp/0217.xlsx
+++ b/logs/2020-02-07/temp/0217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>timestamp</t>
   </si>
@@ -43,12 +43,6 @@
     <t>vol</t>
   </si>
   <si>
-    <t>2020-01-22</t>
-  </si>
-  <si>
-    <t>2020-01-23</t>
-  </si>
-  <si>
     <t>2020-01-24</t>
   </si>
   <si>
@@ -85,37 +79,31 @@
     <t>PWRWELL</t>
   </si>
   <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
     <t>0.255</t>
   </si>
   <si>
+    <t>0.240</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.250</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
     <t>0.285</t>
-  </si>
-  <si>
-    <t>0.295</t>
-  </si>
-  <si>
-    <t>0.280</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.240</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.250</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.300</t>
-  </si>
-  <si>
-    <t>0.315</t>
   </si>
   <si>
     <t>0.270</t>
@@ -482,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,349 +507,291 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>1579651200</v>
+        <v>1579824000</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
       <c r="I2">
-        <v>304119300</v>
+        <v>22770600</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>1579737600</v>
+        <v>1580169600</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>136572800</v>
+        <v>23433800</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>1579824000</v>
+        <v>1580256000</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I4">
-        <v>22770600</v>
+        <v>24256000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>1580169600</v>
+        <v>1580342400</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5">
-        <v>23433800</v>
+        <v>24376400</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>1580256000</v>
+        <v>1580428800</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I6">
-        <v>24256000</v>
+        <v>25026300</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>1580342400</v>
+        <v>1580688000</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7">
-        <v>24376400</v>
+        <v>15538700</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>1580428800</v>
+        <v>1580774400</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>25026300</v>
+        <v>8743500</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>1580688000</v>
+        <v>1580860800</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>15538700</v>
+        <v>8277300</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>1580774400</v>
+        <v>1580947200</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
       <c r="I10">
-        <v>8743500</v>
+        <v>19007100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>1580860800</v>
+        <v>1581033600</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I11">
-        <v>8277300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>1580947200</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12">
-        <v>19007100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>1581033600</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13">
         <v>7385400</v>
       </c>
     </row>
